--- a/학습자료/단답형/영어_복습_목적어 유형.xlsx
+++ b/학습자료/단답형/영어_복습_목적어 유형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,16 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>want 원하다</t>
+          <t>want : 원하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,13 +469,18 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hope 희망하다</t>
+          <t>hope : 희망하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,13 +491,18 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>attempt 시도하다</t>
+          <t>attempt : 시도하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,13 +513,18 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>threaten 위협하다</t>
+          <t>threaten : 위협하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -515,13 +535,18 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>choose 선택하다</t>
+          <t>choose : 선택하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -532,13 +557,18 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agree 동의하다</t>
+          <t>agree : 동의하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -549,13 +579,18 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>need 필요로 하다</t>
+          <t>need : 필요로 하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -566,13 +601,18 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>desire 바라다</t>
+          <t>desire : 바라다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -583,13 +623,18 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer 제안하다</t>
+          <t>offer : 제안하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -600,13 +645,18 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>decide 결정하다</t>
+          <t>decide : 결정하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -617,13 +667,18 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>expect 기대하다</t>
+          <t>expect : 기대하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -634,13 +689,18 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wish 바라다</t>
+          <t>wish : 바라다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -651,13 +711,18 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promise 약속하다</t>
+          <t>promise : 약속하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -668,13 +733,18 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ask 요청하다</t>
+          <t>ask : 요청하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -685,13 +755,18 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>demand 요구하다</t>
+          <t>demand : 요구하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -702,13 +777,18 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">learn 배우다 </t>
+          <t>learn : 배우다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -719,13 +799,18 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>plan 계획하다</t>
+          <t>plan : 계획하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -736,13 +821,18 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>start 시작하다</t>
+          <t>start : 시작하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -753,13 +843,18 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>like 좋아하다</t>
+          <t>like : 좋아하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -770,13 +865,18 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>love 사랑하다</t>
+          <t>love : 사랑하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -787,13 +887,18 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>begin 시작하다</t>
+          <t>begin : 시작하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -804,13 +909,18 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hate 싫어하다</t>
+          <t>hate : 싫어하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -821,13 +931,18 @@
       <c r="C23" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>propose 작정이다</t>
+          <t>propose : 작정이다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -838,13 +953,18 @@
       <c r="C24" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cease 그만두다</t>
+          <t>cease : 그만두다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -855,13 +975,18 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>continue 계속하다</t>
+          <t>continue : 계속하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -872,13 +997,18 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>prefer 좋아하다</t>
+          <t>prefer : 좋아하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -889,13 +1019,18 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>intend 의도하다</t>
+          <t>intend : 의도하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -906,13 +1041,18 @@
       <c r="C28" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mind 꺼리다</t>
+          <t>mind : 꺼리다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -923,13 +1063,18 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>miss 그리워하다</t>
+          <t>miss : 그리워하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -940,13 +1085,18 @@
       <c r="C30" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>enjoy 즐기다</t>
+          <t>enjoy : 즐기다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -957,13 +1107,18 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>give up 포기하다</t>
+          <t>give up : 포기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -974,13 +1129,18 @@
       <c r="C32" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>appreciate 감사하다</t>
+          <t>appreciate : 감사하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -991,13 +1151,18 @@
       <c r="C33" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>postpone 연기하다</t>
+          <t>postpone : 연기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1008,13 +1173,18 @@
       <c r="C34" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">put off 연기하다 </t>
+          <t>put off : 연기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1025,13 +1195,18 @@
       <c r="C35" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>stop 멈추다</t>
+          <t>stop : 멈추다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1042,13 +1217,18 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>suggest 제안하다</t>
+          <t>suggest : 제안하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1059,13 +1239,18 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>consider 고려하다</t>
+          <t>consider : 고려하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1076,13 +1261,18 @@
       <c r="C38" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>admit 인정하다</t>
+          <t>admit : 인정하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1093,13 +1283,18 @@
       <c r="C39" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>avoid 피하다</t>
+          <t>avoid : 피하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1110,13 +1305,18 @@
       <c r="C40" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>risk 무릅쓰다</t>
+          <t>risk : 무릅쓰다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1127,13 +1327,18 @@
       <c r="C41" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>recall 상기하다</t>
+          <t>recall : 상기하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1144,13 +1349,18 @@
       <c r="C42" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>delay 미루다</t>
+          <t>delay : 미루다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1161,13 +1371,18 @@
       <c r="C43" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>quit 멈추다</t>
+          <t>quit : 멈추다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1178,13 +1393,18 @@
       <c r="C44" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>finish 끝내다</t>
+          <t>finish : 끝내다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1195,13 +1415,18 @@
       <c r="C45" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>deny 부인하다</t>
+          <t>deny : 부인하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1212,13 +1437,18 @@
       <c r="C46" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>resist 반대하다</t>
+          <t>resist : 반대하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1229,13 +1459,18 @@
       <c r="C47" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>recommend 추천하다</t>
+          <t>recommend : 추천하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1246,13 +1481,18 @@
       <c r="C48" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>involve 포함하다</t>
+          <t>involve : 포함하다 (목적어 유형)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1263,6 +1503,11 @@
       <c r="C49" t="inlineStr">
         <is>
           <t>목적어 유형</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
